--- a/TestReports_All.xlsx
+++ b/TestReports_All.xlsx
@@ -529,12 +529,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2 broken links found</t>
+          <t>No broken links found</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,40 +615,6 @@
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/StaysTravel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Request error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7c13e504ade0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/StaysTravel</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Request error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7c13e504a990&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8822,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>182.160.106.203</t>
+          <t>43.250.81.50</t>
         </is>
       </c>
     </row>

--- a/TestReports_All.xlsx
+++ b/TestReports_All.xlsx
@@ -529,12 +529,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No broken links found</t>
+          <t>2 broken links found</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,40 @@
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/StaysTravel</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Request error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7fe950f4b290&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/StaysTravel</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Request error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7fe950f4ae40&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
         </is>
       </c>
     </row>
@@ -692,7 +726,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>De €169</t>
+          <t>De €167</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -707,7 +741,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EUR €169</t>
+          <t>EUR €167</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -734,7 +768,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>De €576</t>
+          <t>De €572</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -747,21 +781,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -776,7 +798,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>De €299</t>
+          <t>De €297</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -789,21 +811,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -818,7 +828,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>De €168</t>
+          <t>De €167</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -831,21 +841,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -860,7 +858,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>De €2,343</t>
+          <t>De €2,324</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -873,21 +871,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -902,7 +888,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>De €207</t>
+          <t>De €205</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -915,21 +901,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -944,7 +918,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>De €183</t>
+          <t>De €181</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -957,21 +931,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -999,21 +961,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1028,7 +978,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>De €286</t>
+          <t>De €284</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1041,21 +991,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1070,7 +1008,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>De €153</t>
+          <t>De €152</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1083,21 +1021,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1112,7 +1038,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>De €109</t>
+          <t>De €108</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1125,21 +1051,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1154,7 +1068,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>De €511</t>
+          <t>De €507</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1167,21 +1081,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1196,7 +1098,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>De €111</t>
+          <t>De €110</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1209,21 +1111,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1238,7 +1128,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>De €413</t>
+          <t>De €409</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1251,21 +1141,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1280,7 +1158,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>De €372</t>
+          <t>De €369</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1293,21 +1171,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1322,7 +1188,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>De €255</t>
+          <t>De €253</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1335,21 +1201,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1364,7 +1218,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>De €221</t>
+          <t>De €219</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1377,21 +1231,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1406,7 +1248,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>De €752</t>
+          <t>De €746</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1419,21 +1261,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1448,7 +1278,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>De €251</t>
+          <t>De €249</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1461,21 +1291,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1490,7 +1308,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>De €1,454</t>
+          <t>De €1,442</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1503,21 +1321,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1545,21 +1351,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1587,21 +1381,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1616,7 +1398,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>De €227</t>
+          <t>De €225</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1629,21 +1411,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1658,7 +1428,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>De €245</t>
+          <t>De €243</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1671,21 +1441,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>USD $177</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1700,12 +1458,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>De €169</t>
+          <t>De €167</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>De $249</t>
+          <t>De $250</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1715,12 +1473,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>EUR €169</t>
+          <t>EUR €167</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CAD $249</t>
+          <t>CAD $250</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1742,12 +1500,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>De €576</t>
+          <t>De €572</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>De $851</t>
+          <t>De $855</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1755,21 +1513,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1784,12 +1530,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>De €299</t>
+          <t>De €297</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>De $442</t>
+          <t>De $444</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1797,21 +1543,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1826,12 +1560,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>De €168</t>
+          <t>De €167</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>De $248</t>
+          <t>De $249</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1839,21 +1573,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1868,12 +1590,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>De €2,343</t>
+          <t>De €2,324</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>De $3,460</t>
+          <t>De $3,476</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1881,21 +1603,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1910,12 +1620,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>De €207</t>
+          <t>De €205</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>De $306</t>
+          <t>De $307</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1923,21 +1633,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1952,12 +1650,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>De €183</t>
+          <t>De €181</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>De $270</t>
+          <t>De $271</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1965,21 +1663,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2007,21 +1693,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2036,12 +1710,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>De €286</t>
+          <t>De €284</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>De $422</t>
+          <t>De $424</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2049,21 +1723,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2078,12 +1740,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>De €153</t>
+          <t>De €152</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>De $226</t>
+          <t>De $227</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2091,21 +1753,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2120,12 +1770,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>De €109</t>
+          <t>De €108</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>De $161</t>
+          <t>De $162</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2133,21 +1783,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2162,12 +1800,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>De €511</t>
+          <t>De €507</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>De $754</t>
+          <t>De $758</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2175,21 +1813,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2204,12 +1830,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>De €111</t>
+          <t>De €110</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>De $163</t>
+          <t>De $164</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2217,21 +1843,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2246,12 +1860,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>De €413</t>
+          <t>De €409</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>De $609</t>
+          <t>De $612</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2259,21 +1873,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2288,12 +1890,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>De €372</t>
+          <t>De €369</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>De $549</t>
+          <t>De $551</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2301,21 +1903,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2330,12 +1920,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>De €255</t>
+          <t>De €253</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>De $377</t>
+          <t>De $379</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2343,21 +1933,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2372,12 +1950,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>De €221</t>
+          <t>De €219</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>De $326</t>
+          <t>De $328</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2385,21 +1963,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2414,12 +1980,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>De €752</t>
+          <t>De €746</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>De $1,110</t>
+          <t>De $1,115</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2427,21 +1993,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2456,12 +2010,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>De €251</t>
+          <t>De €249</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>De $370</t>
+          <t>De $372</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2469,21 +2023,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2498,12 +2040,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>De €1,454</t>
+          <t>De €1,442</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>De $2,147</t>
+          <t>De $2,157</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2511,21 +2053,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2553,21 +2083,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2595,21 +2113,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2624,12 +2130,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>De €227</t>
+          <t>De €225</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>De $335</t>
+          <t>De $336</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2637,21 +2143,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2666,12 +2160,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>De €245</t>
+          <t>De €243</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>De $362</t>
+          <t>De $363</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2679,21 +2173,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>CAD $249</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2708,27 +2190,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>De €169</t>
+          <t>De €167</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>De €169</t>
+          <t>De €167</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
+          <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>EUR €169</t>
+          <t>EUR €167</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>EUR €169</t>
+          <t>EUR €167</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2750,34 +2232,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>De €576</t>
+          <t>De €572</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>De €576</t>
+          <t>De €572</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2792,34 +2262,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>De €299</t>
+          <t>De €297</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>De €299</t>
+          <t>De €297</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2834,34 +2292,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>De €168</t>
+          <t>De €167</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>De €168</t>
+          <t>De €167</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2876,34 +2322,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>De €2,343</t>
+          <t>De €2,324</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>De €2,343</t>
+          <t>De €2,324</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2918,34 +2352,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>De €207</t>
+          <t>De €205</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>De €207</t>
+          <t>De €205</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2960,34 +2382,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>De €183</t>
+          <t>De €181</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>De €183</t>
+          <t>De €181</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3012,24 +2422,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3044,34 +2442,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>De €286</t>
+          <t>De €284</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>De €286</t>
+          <t>De €284</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3086,34 +2472,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>De €153</t>
+          <t>De €152</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>De €153</t>
+          <t>De €152</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3128,34 +2502,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>De €109</t>
+          <t>De €108</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>De €109</t>
+          <t>De €108</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3170,34 +2532,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>De €511</t>
+          <t>De €507</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>De €511</t>
+          <t>De €507</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3212,34 +2562,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>De €111</t>
+          <t>De €110</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>De €111</t>
+          <t>De €110</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3254,34 +2592,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>De €413</t>
+          <t>De €409</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>De €413</t>
+          <t>De €409</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3296,34 +2622,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>De €372</t>
+          <t>De €369</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>De €372</t>
+          <t>De €369</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3338,34 +2652,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>De €255</t>
+          <t>De €253</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>De €255</t>
+          <t>De €253</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3380,34 +2682,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>De €221</t>
+          <t>De €219</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>De €221</t>
+          <t>De €219</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3422,34 +2712,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>De €752</t>
+          <t>De €746</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>De €752</t>
+          <t>De €746</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3464,34 +2742,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>De €251</t>
+          <t>De €249</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>De €251</t>
+          <t>De €249</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3506,34 +2772,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>De €1,454</t>
+          <t>De €1,442</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>De €1,454</t>
+          <t>De €1,442</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3558,24 +2812,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3600,24 +2842,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3632,34 +2862,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>De €227</t>
+          <t>De €225</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>De €227</t>
+          <t>De €225</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3674,34 +2892,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>De €245</t>
+          <t>De €243</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>De €245</t>
+          <t>De €243</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>FAIL (Currency did not change)</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+          <t>PASS (Currency changed successfully)</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3716,12 +2922,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>De €169</t>
+          <t>De €167</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>De £140</t>
+          <t>De £139</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3731,12 +2937,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>EUR €169</t>
+          <t>EUR €167</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>GBP £140</t>
+          <t>GBP £139</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3758,12 +2964,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>De €576</t>
+          <t>De €572</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>De £477</t>
+          <t>De £474</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3771,21 +2977,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3800,12 +2994,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>De €299</t>
+          <t>De €297</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>De £248</t>
+          <t>De £246</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3813,21 +3007,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3842,12 +3024,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>De €168</t>
+          <t>De €167</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>De £139</t>
+          <t>De £138</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3855,21 +3037,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3884,12 +3054,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>De €2,343</t>
+          <t>De €2,324</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>De £1,940</t>
+          <t>De £1,925</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3897,21 +3067,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3926,12 +3084,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>De €207</t>
+          <t>De €205</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>De £171</t>
+          <t>De £170</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3939,21 +3097,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3968,12 +3114,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>De €183</t>
+          <t>De €181</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>De £151</t>
+          <t>De £150</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3981,21 +3127,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4023,21 +3157,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4052,12 +3174,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>De €286</t>
+          <t>De €284</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>De £237</t>
+          <t>De £235</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4065,21 +3187,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4094,12 +3204,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>De €153</t>
+          <t>De €152</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>De £127</t>
+          <t>De £126</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4107,21 +3217,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4136,7 +3234,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>De €109</t>
+          <t>De €108</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4149,21 +3247,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4178,12 +3264,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>De €511</t>
+          <t>De €507</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>De £423</t>
+          <t>De £420</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4191,21 +3277,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4220,12 +3294,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>De €111</t>
+          <t>De €110</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>De £92</t>
+          <t>De £91</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4233,21 +3307,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4262,12 +3324,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>De €413</t>
+          <t>De €409</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>De £342</t>
+          <t>De £339</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4275,21 +3337,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4304,12 +3354,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>De €372</t>
+          <t>De €369</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>De £308</t>
+          <t>De £305</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4317,21 +3367,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4346,12 +3384,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>De €255</t>
+          <t>De €253</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>De £211</t>
+          <t>De £210</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4359,21 +3397,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4388,12 +3414,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>De €221</t>
+          <t>De €219</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>De £183</t>
+          <t>De £182</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4401,21 +3427,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4430,12 +3444,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>De €752</t>
+          <t>De €746</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>De £622</t>
+          <t>De £618</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4443,21 +3457,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4472,12 +3474,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>De €251</t>
+          <t>De €249</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>De £207</t>
+          <t>De £206</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4485,21 +3487,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4514,12 +3504,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>De €1,454</t>
+          <t>De €1,442</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>De £1,204</t>
+          <t>De £1,195</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4527,21 +3517,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4561,7 +3539,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>De £57</t>
+          <t>De £56</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4569,21 +3547,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4603,7 +3569,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>De £30</t>
+          <t>De £29</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4611,21 +3577,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4640,12 +3594,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>De €227</t>
+          <t>De €225</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>De £188</t>
+          <t>De £186</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4653,21 +3607,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4682,12 +3624,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>De €245</t>
+          <t>De €243</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>De £203</t>
+          <t>De £201</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4695,21 +3637,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>GBP £140</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4724,12 +3654,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>De €169</t>
+          <t>De €167</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>De $276</t>
+          <t>De $275</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4739,12 +3669,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>EUR €169</t>
+          <t>EUR €167</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>AUD $276</t>
+          <t>AUD $275</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4766,12 +3696,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>De €576</t>
+          <t>De €572</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>De $944</t>
+          <t>De $939</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4779,21 +3709,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4808,12 +3726,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>De €299</t>
+          <t>De €297</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>De $490</t>
+          <t>De $487</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4821,21 +3739,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4850,12 +3756,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>De €168</t>
+          <t>De €167</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>De $275</t>
+          <t>De $274</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4863,21 +3769,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4892,12 +3786,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>De €2,343</t>
+          <t>De €2,324</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>De $3,835</t>
+          <t>De $3,815</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4905,21 +3799,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4934,12 +3816,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>De €207</t>
+          <t>De €205</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>De $339</t>
+          <t>De $337</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4947,21 +3829,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4976,12 +3846,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>De €183</t>
+          <t>De €181</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>De $299</t>
+          <t>De $298</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4989,21 +3859,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5031,21 +3889,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5060,12 +3906,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>De €286</t>
+          <t>De €284</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>De $468</t>
+          <t>De $465</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5073,21 +3919,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5102,12 +3936,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>De €153</t>
+          <t>De €152</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>De $250</t>
+          <t>De $249</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5115,21 +3949,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5144,12 +3966,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>De €109</t>
+          <t>De €108</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>De $179</t>
+          <t>De $178</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5157,21 +3979,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5186,12 +3996,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>De €511</t>
+          <t>De €507</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>De $836</t>
+          <t>De $832</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5199,21 +4009,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5228,12 +4026,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>De €111</t>
+          <t>De €110</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>De $181</t>
+          <t>De $180</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5241,21 +4039,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5270,12 +4056,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>De €413</t>
+          <t>De €409</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>De $675</t>
+          <t>De $672</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5283,21 +4069,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5312,12 +4086,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>De €372</t>
+          <t>De €369</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>De $608</t>
+          <t>De $605</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5325,21 +4099,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5354,12 +4116,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>De €255</t>
+          <t>De €253</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>De $418</t>
+          <t>De $416</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5367,21 +4129,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5396,12 +4146,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>De €221</t>
+          <t>De €219</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>De $362</t>
+          <t>De $360</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5409,21 +4159,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5438,12 +4176,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>De €752</t>
+          <t>De €746</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>De $1,231</t>
+          <t>De $1,224</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5451,21 +4189,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5480,12 +4206,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>De €251</t>
+          <t>De €249</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>De $410</t>
+          <t>De $408</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5493,21 +4219,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5522,12 +4236,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>De €1,454</t>
+          <t>De €1,442</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>De $2,380</t>
+          <t>De $2,367</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5535,21 +4249,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5569,7 +4271,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>De $112</t>
+          <t>De $111</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5577,21 +4279,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5611,7 +4301,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>De $59</t>
+          <t>De $58</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5619,21 +4309,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5648,12 +4326,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>De €227</t>
+          <t>De €225</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>De $371</t>
+          <t>De $369</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5661,21 +4339,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5690,12 +4356,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>De €245</t>
+          <t>De €243</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>De $401</t>
+          <t>De $399</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5703,21 +4369,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>AUD $276</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5732,12 +4386,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>De €169</t>
+          <t>De €167</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>De $238</t>
+          <t>De $237</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5747,12 +4401,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>EUR €169</t>
+          <t>EUR €167</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>SGD $238</t>
+          <t>SGD $237</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5774,12 +4428,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>De €576</t>
+          <t>De €572</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>De $815</t>
+          <t>De $810</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5787,21 +4441,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5816,12 +4458,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>De €299</t>
+          <t>De €297</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>De $423</t>
+          <t>De $420</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5829,21 +4471,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5858,12 +4488,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>De €168</t>
+          <t>De €167</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>De $237</t>
+          <t>De $236</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5871,21 +4501,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5900,12 +4518,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>De €2,343</t>
+          <t>De €2,324</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>De $3,311</t>
+          <t>De $3,293</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5913,21 +4531,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5942,12 +4548,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>De €207</t>
+          <t>De €205</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>De $292</t>
+          <t>De $291</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5955,21 +4561,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5984,12 +4578,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>De €183</t>
+          <t>De €181</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>De $258</t>
+          <t>De $257</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5997,21 +4591,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6039,21 +4621,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6068,12 +4638,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>De €286</t>
+          <t>De €284</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>De $404</t>
+          <t>De $402</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6081,21 +4651,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6110,12 +4668,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>De €153</t>
+          <t>De €152</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>De $216</t>
+          <t>De $215</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6123,21 +4681,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6152,12 +4698,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>De €109</t>
+          <t>De €108</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>De $154</t>
+          <t>De $153</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6165,21 +4711,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6194,12 +4728,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>De €511</t>
+          <t>De €507</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>De $722</t>
+          <t>De $718</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6207,21 +4741,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6236,12 +4758,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>De €111</t>
+          <t>De €110</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>De $156</t>
+          <t>De $155</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6249,21 +4771,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6278,12 +4788,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>De €413</t>
+          <t>De €409</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>De $583</t>
+          <t>De $580</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6291,21 +4801,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6320,12 +4818,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>De €372</t>
+          <t>De €369</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>De $525</t>
+          <t>De $522</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6333,21 +4831,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6362,12 +4848,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>De €255</t>
+          <t>De €253</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>De $361</t>
+          <t>De $359</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6375,21 +4861,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6404,12 +4878,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>De €221</t>
+          <t>De €219</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>De $312</t>
+          <t>De $311</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6417,21 +4891,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6446,12 +4908,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>De €752</t>
+          <t>De €746</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>De $1,062</t>
+          <t>De $1,056</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6459,21 +4921,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6488,12 +4938,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>De €251</t>
+          <t>De €249</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>De $354</t>
+          <t>De $352</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6501,21 +4951,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6530,12 +4968,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>De €1,454</t>
+          <t>De €1,442</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>De $2,055</t>
+          <t>De $2,043</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6543,21 +4981,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6585,21 +5011,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6619,7 +5033,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>De $51</t>
+          <t>De $50</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6627,21 +5041,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6656,12 +5058,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>De €227</t>
+          <t>De €225</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>De $320</t>
+          <t>De $319</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6669,21 +5071,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6698,12 +5088,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>De €245</t>
+          <t>De €243</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>De $346</t>
+          <t>De $344</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6711,21 +5101,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>SGD $238</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6740,7 +5118,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>De €169</t>
+          <t>De €167</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6755,7 +5133,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>EUR €169</t>
+          <t>EUR €167</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6782,7 +5160,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>De €576</t>
+          <t>De €572</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6795,21 +5173,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6824,7 +5190,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>De €299</t>
+          <t>De €297</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6837,21 +5203,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6866,7 +5220,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>De €168</t>
+          <t>De €167</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6879,21 +5233,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6908,7 +5250,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>De €2,343</t>
+          <t>De €2,324</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6921,21 +5263,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6950,7 +5280,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>De €207</t>
+          <t>De €205</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6963,21 +5293,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6992,7 +5310,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>De €183</t>
+          <t>De €181</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7005,21 +5323,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7047,21 +5353,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7076,7 +5370,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>De €286</t>
+          <t>De €284</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7089,21 +5383,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7118,7 +5400,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>De €153</t>
+          <t>De €152</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7131,21 +5413,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7160,7 +5430,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>De €109</t>
+          <t>De €108</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7173,21 +5443,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7202,7 +5460,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>De €511</t>
+          <t>De €507</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7215,21 +5473,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7244,7 +5490,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>De €111</t>
+          <t>De €110</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7257,21 +5503,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7286,7 +5520,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>De €413</t>
+          <t>De €409</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7299,21 +5533,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7328,7 +5550,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>De €372</t>
+          <t>De €369</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -7341,21 +5563,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7370,7 +5580,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>De €255</t>
+          <t>De €253</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -7383,21 +5593,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7412,7 +5610,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>De €221</t>
+          <t>De €219</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -7425,21 +5623,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7454,7 +5640,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>De €752</t>
+          <t>De €746</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -7467,21 +5653,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7496,7 +5670,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>De €251</t>
+          <t>De €249</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -7509,21 +5683,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7538,7 +5700,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>De €1,454</t>
+          <t>De €1,442</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -7551,21 +5713,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7593,21 +5743,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7635,21 +5773,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7664,7 +5790,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>De €227</t>
+          <t>De €225</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -7677,21 +5803,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7706,7 +5820,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>De €245</t>
+          <t>De €243</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -7719,21 +5833,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>AED د.إ.650</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7748,12 +5850,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>De €169</t>
+          <t>De €167</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>De ৳21,165</t>
+          <t>De ৳21,223</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7763,12 +5865,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>EUR €169</t>
+          <t>EUR €167</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>BDT ৳21,165</t>
+          <t>BDT ৳21,223</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -7790,12 +5892,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>De €576</t>
+          <t>De €572</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>De ৳72,344</t>
+          <t>De ৳72,541</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7803,21 +5905,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7832,12 +5922,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>De €299</t>
+          <t>De €297</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>De ৳37,547</t>
+          <t>De ৳37,650</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7845,21 +5935,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7874,12 +5952,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>De €168</t>
+          <t>De €167</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>De ৳21,085</t>
+          <t>De ৳21,143</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7887,21 +5965,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7916,12 +5982,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>De €2,343</t>
+          <t>De €2,324</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>De ৳294,041</t>
+          <t>De ৳294,842</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7929,21 +5995,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7958,12 +6012,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>De €207</t>
+          <t>De €205</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>De ৳25,971</t>
+          <t>De ৳26,042</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7971,21 +6025,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8000,12 +6042,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>De €183</t>
+          <t>De €181</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>De ৳22,935</t>
+          <t>De ৳22,997</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -8013,21 +6055,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -8047,7 +6077,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>De ৳10,072</t>
+          <t>De ৳10,099</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -8055,21 +6085,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -8084,12 +6102,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>De €286</t>
+          <t>De €284</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>De ৳35,873</t>
+          <t>De ৳35,971</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -8097,21 +6115,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -8126,12 +6132,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>De €153</t>
+          <t>De €152</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>De ৳19,197</t>
+          <t>De ৳19,249</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -8139,21 +6145,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8168,12 +6162,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>De €109</t>
+          <t>De €108</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>De ৳13,702</t>
+          <t>De ৳13,740</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -8181,21 +6175,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8210,12 +6192,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>De €511</t>
+          <t>De €507</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>De ৳64,094</t>
+          <t>De ৳64,268</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8223,21 +6205,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -8252,12 +6222,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>De €111</t>
+          <t>De €110</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>De ৳13,872</t>
+          <t>De ৳13,910</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8265,21 +6235,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8294,12 +6252,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>De €413</t>
+          <t>De €409</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>De ৳51,777</t>
+          <t>De ৳51,918</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8307,21 +6265,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -8336,12 +6282,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>De €372</t>
+          <t>De €369</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>De ৳46,635</t>
+          <t>De ৳46,762</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8349,21 +6295,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8378,12 +6312,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>De €255</t>
+          <t>De €253</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>De ৳32,047</t>
+          <t>De ৳32,134</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8391,21 +6325,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8420,12 +6342,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>De €221</t>
+          <t>De €219</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>De ৳27,742</t>
+          <t>De ৳27,818</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8433,21 +6355,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8462,12 +6372,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>De €752</t>
+          <t>De €746</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>De ৳94,347</t>
+          <t>De ৳94,604</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8475,21 +6385,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8504,12 +6402,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>De €251</t>
+          <t>De €249</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>De ৳31,449</t>
+          <t>De ৳31,535</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8517,21 +6415,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8546,12 +6432,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>De €1,454</t>
+          <t>De €1,442</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>De ৳182,475</t>
+          <t>De ৳182,972</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8559,21 +6445,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8593,7 +6467,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>De ৳8,569</t>
+          <t>De ৳8,592</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8601,21 +6475,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8635,7 +6497,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>De ৳4,496</t>
+          <t>De ৳4,508</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8643,21 +6505,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8672,12 +6522,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>De €227</t>
+          <t>De €225</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>De ৳28,459</t>
+          <t>De ৳28,537</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8685,21 +6535,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8714,12 +6552,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>De €245</t>
+          <t>De €243</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>De ৳30,731</t>
+          <t>De ৳30,815</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8727,21 +6565,9 @@
           <t>PASS (Currency changed successfully)</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>EUR €169</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>BDT ৳21,165</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>PASS (Currency changed successfully)</t>
-        </is>
-      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8822,7 +6648,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>43.250.81.50</t>
+          <t>182.160.106.203</t>
         </is>
       </c>
     </row>

--- a/TestReports_All.xlsx
+++ b/TestReports_All.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Request error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by SSLError(SSLError(1, '[SSL] unknown error (_ssl.c:1000)')))</t>
+          <t>Request error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7e84b8258a70&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
         </is>
       </c>
     </row>

--- a/TestReports_All.xlsx
+++ b/TestReports_All.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Request error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7e84b8258a70&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+          <t>Request error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x76d75d247e60&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Request error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by SSLError(SSLError(1, '[SSL] unknown error (_ssl.c:1000)')))</t>
+          <t>Request error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x76d75d2476e0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
         </is>
       </c>
     </row>
